--- a/temp_doc/Mapel Ujian Tryout.xlsx
+++ b/temp_doc/Mapel Ujian Tryout.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B928BE3-8758-EA4D-96B8-952B54A1EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913CC9B-C0B0-7441-B625-269EA598B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{B5D2780C-FE4A-A44E-B9DC-5CAD430C10DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B5D2780C-FE4A-A44E-B9DC-5CAD430C10DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
   <si>
     <t>category</t>
   </si>
@@ -48,59 +47,272 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>AGAMA ISLAM (AKL 1)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (AKL 1)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (AKL 2)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (AKL 2)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (PM)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (PM)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (MPLB 1)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (MPLB 1)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (MPLB 2)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (MPLB 2)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (TJKT 1)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (TJKT 2)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (TJKT 3)</t>
-  </si>
-  <si>
-    <t>AGAMA ISLAM (TJKT 2)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (TJKT 1)</t>
-  </si>
-  <si>
-    <t>AGAMA KRISTEN (TJKT 3)</t>
+    <t>AGAMA ISLAM (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>KOMPUTER AKUNTANSI (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>AKUNTANSI LEMBAGA (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>AKUNTANSI PER. JASA DAGANG DAN MANUF (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI PAJAK (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>AKUNTANSI KEUANGAN (XII AKL 1)</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>KOMPUTER AKUNTANSI (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>AKUNTANSI LEMBAGA (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>AKUNTANSI PER. JASA DAGANG DAN MANUF (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI PAJAK (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>AKUNTANSI KEUANGAN (XII AKL 2)</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK SARANA DAN PRASARANA (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK KEUANGAN (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK KEPEGAWAIAN (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>OTK HUMAS DAN KEPROTOKOLAN (XII MPLB 1)</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK SARANA DAN PRASARANA (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK KEUANGAN (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK KEPEGAWAIAN (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>OTK HUMAS DAN KEPROTOKOLAN (XII MPLB 2)</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM (XII PM)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII PM)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII PM)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII PM)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII PM)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII PM)</t>
+  </si>
+  <si>
+    <t>PENGELOLAAN BISNIS RITEL (XII PM)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII PM)</t>
+  </si>
+  <si>
+    <t>BISNIS ONLINE (XII PM)</t>
+  </si>
+  <si>
+    <t>PENATAAN PRODUK (XII PM)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI TRANSAKSI (XII PM)</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI JARINGAN BERBASIS LUAS (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI SISTEM JARINGAN (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI LAYANAN JARINGAN (XII TJKT 1)</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI JARINGAN BERBASIS LUAS (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI SISTEM JARINGAN (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI LAYANAN JARINGAN (XII TJKT 2)</t>
+  </si>
+  <si>
+    <t>AGAMA ISLAM (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>AGAMA KRISTEN (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA INDONESIA (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>PEND. PANCASILA DAN KEWARGANEGARAAN (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>BAHASA INGGRIS (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>MATEMATIKA (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI JARINGAN BERBASIS LUAS (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>PRODUK KREATIF DAN KEWIRAUSAHAAN (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI SISTEM JARINGAN (XII TJKT 3)</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI LAYANAN JARINGAN (XII TJKT 3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,14 +325,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -164,14 +368,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -487,537 +685,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AF45C9-2B7D-1343-92B3-4D7AE2CCBE8D}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="B18" sqref="A1:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="61.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>242</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>242</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="1">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>243</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1">
+        <v>250</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>243</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="1">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>244</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>244</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="1">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>245</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="1">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>245</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="1">
+        <v>250</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>246</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="1">
+        <v>250</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>246</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="1">
+        <v>250</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>247</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="1">
+        <v>250</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>248</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
+      <c r="A13" s="1">
+        <v>250</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>249</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="1">
+        <v>251</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>247</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>251</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>248</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>251</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>249</v>
-      </c>
-      <c r="B17" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1">
+        <v>251</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1">
+        <v>251</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1">
+        <v>251</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1">
+        <v>251</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1">
+        <v>251</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1">
+        <v>251</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1">
+        <v>251</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="1">
+        <v>251</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="1">
+        <v>253</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="1">
+        <v>253</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="1">
+        <v>253</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="1">
+        <v>253</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="1">
+        <v>253</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="1">
+        <v>253</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="1">
+        <v>253</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="1">
+        <v>253</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="1">
+        <v>253</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="1">
+        <v>253</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="1">
+        <v>253</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="1">
+        <v>254</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="1">
+        <v>254</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="1">
+        <v>254</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="1">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="1">
+        <v>254</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="1">
+        <v>254</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="1">
+        <v>254</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="1">
+        <v>254</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="1">
+        <v>254</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="1">
+        <v>254</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1">
+        <v>254</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>252</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>252</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="1">
+        <v>252</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1">
+        <v>252</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="1">
+        <v>252</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="1">
+        <v>252</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1">
+        <v>252</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1">
+        <v>252</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1">
+        <v>252</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1">
+        <v>252</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1">
+        <v>252</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="1">
+        <v>255</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>255</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1">
+        <v>255</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="1">
+        <v>255</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="1">
+        <v>255</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1">
+        <v>255</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="1">
+        <v>255</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1">
+        <v>255</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1">
+        <v>255</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1">
+        <v>255</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1">
+        <v>256</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1">
+        <v>256</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="1">
+        <v>256</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1">
+        <v>256</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1">
+        <v>256</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1">
+        <v>256</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="1">
+        <v>256</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1">
+        <v>256</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>256</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>256</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>257</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>257</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>257</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>257</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>257</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>257</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>257</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>257</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>257</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>257</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5FFC70-A027-2644-9DD7-AD72A55647C0}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/temp_doc/Mapel Ujian Tryout.xlsx
+++ b/temp_doc/Mapel Ujian Tryout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913CC9B-C0B0-7441-B625-269EA598B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB2E58-5A41-BB47-8B69-38BFC9325245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B5D2780C-FE4A-A44E-B9DC-5CAD430C10DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{B5D2780C-FE4A-A44E-B9DC-5CAD430C10DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AF45C9-2B7D-1343-92B3-4D7AE2CCBE8D}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:C88"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>42</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>43</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>45</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>47</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>48</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>49</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>51</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>52</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>53</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>54</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>55</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>56</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>57</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>58</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>59</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>60</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>61</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>63</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>66</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>67</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>68</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>69</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>70</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>71</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>72</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>73</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>74</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>75</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>76</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>77</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>78</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>79</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>80</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>81</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>82</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>83</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>84</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>85</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>86</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>87</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>88</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>89</v>
